--- a/factor/legacy/연료비율_8월.xlsx
+++ b/factor/legacy/연료비율_8월.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dense_traffic_emi\factor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\emi_calculation\factor\legacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447939C2-176D-47BE-B4DD-CAF96A195BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD35C051-5769-407A-B501-AE04DCCB4CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5E3E7A8-E29F-44A6-8FAD-F9C5F6A174A5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>승용차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승용차비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>승합비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,7 +90,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화물대형비율</t>
+    <t>승용비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,10 +98,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -129,18 +126,38 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="굴림"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <name val="굴림"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,42 +191,46 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="쉼표 [0] 3" xfId="1" xr:uid="{1576C47B-704E-45DA-9904-7137070C2B2D}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -543,191 +564,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A05A09-2912-4E3E-812F-FD8739E5DD02}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>3208580</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <f>B2/B$6</f>
         <v>0.59817909018641613</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1942</v>
       </c>
-      <c r="E2">
-        <f>D2/SUM(D$2:D$4)</f>
-        <v>1.1987654320987653E-2</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="4">
+        <f>D2/D$6</f>
+        <v>1.197088030968951E-2</v>
+      </c>
+      <c r="F2" s="3">
         <v>8266</v>
       </c>
-      <c r="G2">
-        <f>F2/SUM(F$2:F$4)</f>
-        <v>1.0250940951058144E-2</v>
-      </c>
-      <c r="H2">
-        <f>F2/SUM(F$2:F$3)</f>
-        <v>1.0913810472557696E-2</v>
-      </c>
-      <c r="I2">
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G3" si="0">F2/F$6</f>
+        <v>1.0243331796709642E-2</v>
+      </c>
+      <c r="H2" s="5">
         <v>88</v>
       </c>
+      <c r="I2" s="4">
+        <f>H2/H$6</f>
+        <v>3.2411329232809104E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1404214</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">B3/B$6</f>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C5" si="1">B3/B$6</f>
         <v>0.26178915686909104</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>144201</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E4" si="1">D3/SUM(D$2:D$4)</f>
-        <v>0.8901296296296296</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E5" si="2">D3/D$6</f>
+        <v>0.88888409450954531</v>
+      </c>
+      <c r="F3" s="3">
         <v>749123</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G4" si="2">F3/SUM(F$2:F$4)</f>
-        <v>0.92901229592058188</v>
-      </c>
-      <c r="H3">
-        <f>F3/SUM(F$2:F$3)</f>
-        <v>0.98908618952744232</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92832270088876334</v>
+      </c>
+      <c r="H3" s="3">
         <v>26663</v>
       </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I5" si="3">H3/H$6</f>
+        <v>0.98202644469816947</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>294705</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
+      <c r="C4" s="4">
+        <f t="shared" si="1"/>
         <v>5.4942176530860309E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>15857</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>9.7882716049382715E-2</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="4">
+        <f t="shared" si="2"/>
+        <v>9.7745751323762384E-2</v>
+      </c>
+      <c r="F4" s="1">
         <v>48976</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>6.0736763128359988E-2</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="G4" s="4">
+        <f>F4/F$6</f>
+        <v>6.0691678934871943E-2</v>
+      </c>
+      <c r="H4" s="2">
         <v>385</v>
       </c>
+      <c r="I4" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4179956539353984E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>456413</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
+      <c r="C5" s="4">
+        <f t="shared" si="1"/>
         <v>8.5089576413632434E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>227</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3992738570028417E-3</v>
+      </c>
+      <c r="F5" s="2">
         <v>599</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3">
+      <c r="G5" s="4">
+        <f>F5/F$6</f>
+        <v>7.422883796551023E-4</v>
+      </c>
+      <c r="H5" s="6">
         <v>15</v>
       </c>
+      <c r="I5" s="4">
+        <f t="shared" si="3"/>
+        <v>5.5246583919560974E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <f>SUM(B2:B5)</f>
         <v>5363912</v>
       </c>
-      <c r="D6">
-        <f t="shared" ref="D6:I6" si="3">SUM(D2:D5)</f>
+      <c r="C6" s="7">
+        <f t="shared" ref="C6:I6" si="4">SUM(C2:C5)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="4"/>
         <v>162227</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
+      <c r="E6" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="4"/>
         <v>806964</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
+      <c r="G6" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="4"/>
         <v>27151</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
